--- a/EvolutionExempleHAS/ig/StructureDefinition-fr-medication-history-composition.xlsx
+++ b/EvolutionExempleHAS/ig/StructureDefinition-fr-medication-history-composition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-15T15:37:35+00:00</t>
+    <t>2025-09-17T08:51:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/EvolutionExempleHAS/ig/StructureDefinition-fr-medication-history-composition.xlsx
+++ b/EvolutionExempleHAS/ig/StructureDefinition-fr-medication-history-composition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-17T08:51:55+00:00</t>
+    <t>2025-09-23T12:31:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/EvolutionExempleHAS/ig/StructureDefinition-fr-medication-history-composition.xlsx
+++ b/EvolutionExempleHAS/ig/StructureDefinition-fr-medication-history-composition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T12:31:20+00:00</t>
+    <t>2025-09-23T14:36:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/EvolutionExempleHAS/ig/StructureDefinition-fr-medication-history-composition.xlsx
+++ b/EvolutionExempleHAS/ig/StructureDefinition-fr-medication-history-composition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T14:36:30+00:00</t>
+    <t>2025-10-23T12:45:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -3390,7 +3390,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="13" hidden="true">
+    <row r="13">
       <c r="A13" t="s" s="2">
         <v>172</v>
       </c>
@@ -4098,7 +4098,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="19" hidden="true">
+    <row r="19">
       <c r="A19" t="s" s="2">
         <v>223</v>
       </c>
@@ -5034,7 +5034,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
         <v>271</v>
       </c>
@@ -5153,7 +5153,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
         <v>282</v>
       </c>
@@ -8667,7 +8667,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="58" hidden="true">
+    <row r="58">
       <c r="A58" t="s" s="2">
         <v>417</v>
       </c>
@@ -9014,7 +9014,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="61" hidden="true">
+    <row r="61">
       <c r="A61" t="s" s="2">
         <v>429</v>
       </c>
@@ -9962,7 +9962,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="69" hidden="true">
+    <row r="69">
       <c r="A69" t="s" s="2">
         <v>456</v>
       </c>
@@ -10079,7 +10079,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="70" hidden="true">
+    <row r="70">
       <c r="A70" t="s" s="2">
         <v>461</v>
       </c>
@@ -10315,7 +10315,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="72" hidden="true">
+    <row r="72">
       <c r="A72" t="s" s="2">
         <v>473</v>
       </c>
@@ -10553,7 +10553,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="74" hidden="true">
+    <row r="74">
       <c r="A74" t="s" s="2">
         <v>490</v>
       </c>
@@ -10910,12 +10910,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AO76">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>

--- a/EvolutionExempleHAS/ig/StructureDefinition-fr-medication-history-composition.xlsx
+++ b/EvolutionExempleHAS/ig/StructureDefinition-fr-medication-history-composition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-23T12:45:10+00:00</t>
+    <t>2025-10-23T14:53:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
